--- a/30_KnowHow/Git/Git.xlsx
+++ b/30_KnowHow/Git/Git.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
   <si>
     <t>按照上面操作本地Branch退回到对应版本后，在对本地节点进行Push，就可以让本地节点和Origin节点同步</t>
   </si>
@@ -26,9 +26,6 @@
     <t>恢复到某一版本号</t>
   </si>
   <si>
-    <t>恢复到上一节点</t>
-  </si>
-  <si>
     <t>Commit後の回復</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
     <t>C:\Users\jianwu.zhang\Project\testJavaScript\.git\config</t>
   </si>
   <si>
-    <t>git reset  Head^ --hard</t>
-  </si>
-  <si>
     <t xml:space="preserve">git reset 版本号 </t>
   </si>
   <si>
@@ -555,6 +549,30 @@
   </si>
   <si>
     <t>git push origin master</t>
+  </si>
+  <si>
+    <t> 根据–soft –mixed –hard，会对working tree和index和HEAD进行重置:</t>
+  </si>
+  <si>
+    <t>    git reset –mixed：此为默认方式，不带任何参数的git reset，即时这种方式，它回退到某个版本，只保留源码，回退commit和index信息</t>
+  </si>
+  <si>
+    <t>    git reset –soft：回退到某个版本，只回退了commit的信息，不会恢复到index file一级。如果还要提交，直接commit即可</t>
+  </si>
+  <si>
+    <t>    git reset –hard：彻底回退到某个版本，本地的源码也会变为上一个版本的内容</t>
+  </si>
+  <si>
+    <t>上一次提交</t>
+  </si>
+  <si>
+    <t>git reset  HEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git reset  HEAD^ </t>
+  </si>
+  <si>
+    <t>最近一次提交</t>
   </si>
 </sst>
 </file>
@@ -956,13 +974,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>240</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>351009</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>151428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -994,13 +1012,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>351619</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>113833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1032,13 +1050,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1092,13 +1110,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1152,13 +1170,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>351619</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>18583</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1190,13 +1208,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1255,13 +1273,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1320,13 +1338,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>189714</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>113833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1358,13 +1376,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>339</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1426,13 +1444,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1494,13 +1512,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1567,13 +1585,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1640,13 +1658,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>353</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>351238</xdr:colOff>
-      <xdr:row>372</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>113833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1678,13 +1696,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>372</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1738,13 +1756,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>373</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2155,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M352"/>
+  <dimension ref="A1:M358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="G346" sqref="G346"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,21 +2186,21 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -2194,63 +2212,63 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2258,13 +2276,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2272,31 +2290,31 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -2304,19 +2322,19 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -2326,28 +2344,28 @@
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="D33" s="2"/>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -2360,449 +2378,423 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C41" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C43" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="F78" t="s">
-        <v>3</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>0</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>136</v>
+      <c r="C84" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+      <c r="G91" t="s">
         <v>137</v>
       </c>
-      <c r="G85" t="s">
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+      <c r="I113" t="s">
         <v>140</v>
       </c>
-      <c r="I107" t="s">
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="130" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="124" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
+      <c r="H136" t="s">
         <v>144</v>
       </c>
-      <c r="H130" t="s">
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D153" t="s">
+      <c r="E159" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
         <v>148</v>
       </c>
-      <c r="F153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D154" t="s">
+      <c r="E160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F160" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
         <v>149</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F161" t="s">
         <v>152</v>
       </c>
-      <c r="F154" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
-        <v>150</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F155" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F159" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
-        <v>61</v>
-      </c>
-      <c r="F162" t="s">
-        <v>62</v>
+      <c r="B162" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
-        <v>63</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C165" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F165" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>60</v>
+      </c>
+      <c r="F168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>62</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="F170" t="s">
         <v>65</v>
       </c>
-      <c r="F164" t="s">
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C172" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C173" s="24"/>
+      <c r="D173" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E173" s="24"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C174" s="24"/>
+      <c r="D174" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E174" s="24"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C175" s="24"/>
+      <c r="D175" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E175" s="24"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C176" s="24"/>
+      <c r="D176" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E176" s="24"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C167" s="24"/>
-      <c r="D167" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E167" s="24"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C168" s="24"/>
-      <c r="D168" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E168" s="24"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C169" s="24"/>
-      <c r="D169" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E169" s="24"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C170" s="24"/>
-      <c r="D170" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E170" s="24"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
+      <c r="F179" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
         <v>68</v>
       </c>
-      <c r="F173" t="s">
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>49</v>
+      </c>
+      <c r="F188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>51</v>
+      </c>
+      <c r="F189" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>53</v>
+      </c>
+      <c r="F190" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B192" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D174" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D175" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D176" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
-        <v>52</v>
-      </c>
-      <c r="F183" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
-        <v>54</v>
-      </c>
-      <c r="F184" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>75</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>77</v>
+      </c>
+      <c r="F194" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
-        <v>76</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
-        <v>78</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="F195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
-        <v>74</v>
-      </c>
-      <c r="F189" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
+      <c r="G196" t="s">
         <v>80</v>
       </c>
-      <c r="G190" t="s">
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D197" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D191" s="3" t="s">
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D198" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D192" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="9"/>
-    </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D193" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E193" s="11"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="12"/>
-    </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D194" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="12"/>
-    </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D195" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="12"/>
-    </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D196" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="12"/>
-    </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D197" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E197" s="11"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="12"/>
-    </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D198" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E198" s="11"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="12"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="9"/>
     </row>
     <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D199" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E199" s="11"/>
       <c r="F199" s="11"/>
@@ -2811,7 +2803,7 @@
     </row>
     <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D200" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
@@ -2820,7 +2812,7 @@
     </row>
     <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D201" s="10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E201" s="11"/>
       <c r="F201" s="11"/>
@@ -2829,7 +2821,7 @@
     </row>
     <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D202" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
@@ -2838,7 +2830,7 @@
     </row>
     <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D203" s="10" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E203" s="11"/>
       <c r="F203" s="11"/>
@@ -2847,7 +2839,7 @@
     </row>
     <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D204" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
@@ -2856,7 +2848,7 @@
     </row>
     <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D205" s="10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
@@ -2864,104 +2856,104 @@
       <c r="H205" s="12"/>
     </row>
     <row r="206" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D206" s="13" t="s">
+      <c r="D206" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="12"/>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D207" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="12"/>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D208" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="12"/>
+    </row>
+    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D209" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="12"/>
+    </row>
+    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D210" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="12"/>
+    </row>
+    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D211" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="12"/>
+    </row>
+    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D212" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="14"/>
+      <c r="H212" s="15"/>
+    </row>
+    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
         <v>97</v>
       </c>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="15"/>
-    </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
+      <c r="H214" t="s">
         <v>98</v>
       </c>
-      <c r="H208" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C209" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D209" s="6"/>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6"/>
-      <c r="G209" s="6"/>
-      <c r="H209" s="6"/>
-      <c r="I209" s="6"/>
-    </row>
-    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D210" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D211" s="16" t="s">
+    </row>
+    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C215" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="9"/>
-    </row>
-    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D212" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
-      <c r="H212" s="12"/>
-    </row>
-    <row r="213" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D213" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E213" s="11"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
-      <c r="H213" s="12"/>
-    </row>
-    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D214" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="E214" s="11"/>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
-      <c r="H214" s="12"/>
-    </row>
-    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D215" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E215" s="11"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
-      <c r="H215" s="12"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
     </row>
     <row r="216" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D216" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
-      <c r="H216" s="12"/>
+      <c r="D216" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="217" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D217" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
-      <c r="H217" s="12"/>
+      <c r="D217" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="9"/>
     </row>
     <row r="218" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D218" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
@@ -2969,225 +2961,279 @@
       <c r="H218" s="12"/>
     </row>
     <row r="219" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D219" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
-      <c r="H219" s="15"/>
+      <c r="D219" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="12"/>
+    </row>
+    <row r="220" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D220" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="12"/>
     </row>
     <row r="221" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
-        <v>116</v>
-      </c>
+      <c r="D221" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="12"/>
     </row>
     <row r="222" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D222" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="D222" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="12"/>
     </row>
     <row r="223" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D223" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="9"/>
+      <c r="D223" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="12"/>
     </row>
     <row r="224" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D224" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
       <c r="H224" s="12"/>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D225" s="10" t="s">
+    <row r="225" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D225" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E225" s="14"/>
+      <c r="F225" s="14"/>
+      <c r="G225" s="14"/>
+      <c r="H225" s="15"/>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D228" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D229" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="9"/>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D230" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="12"/>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D231" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="12"/>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D232" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E225" s="11"/>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="12"/>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D226" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E226" s="11"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
-      <c r="H226" s="12"/>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D227" s="17" t="s">
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="12"/>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D233" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="12"/>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D234" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="12"/>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D228" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
-      <c r="H228" s="15"/>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
+      <c r="E234" s="14"/>
+      <c r="F234" s="14"/>
+      <c r="G234" s="14"/>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C238" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C239" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C241" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C232" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C233" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C235" s="19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D237" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B283" s="21" t="s">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C290" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C284" s="19" t="s">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C291" s="22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C285" s="22" t="s">
+      <c r="D291" s="22"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
         <v>128</v>
       </c>
-      <c r="D285" s="22"/>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D286" t="s">
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D293" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D287" t="s">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D288" t="s">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D289" t="s">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C297" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C291" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C298" t="s">
+    <row r="306" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C306" s="19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D299" t="s">
+    <row r="307" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D307" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C300" s="19" t="s">
+    <row r="308" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C308" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D308" s="19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D301" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C302" s="19" t="s">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
         <v>164</v>
       </c>
-      <c r="D302" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C344" t="s">
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C345" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C346" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B349" s="1" t="s">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C350" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C352" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3213,23 +3259,23 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/30_KnowHow/Git/Git.xlsx
+++ b/30_KnowHow/Git/Git.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1350" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="commond" sheetId="2" r:id="rId1"/>
     <sheet name="User Question" sheetId="1" r:id="rId2"/>
+    <sheet name="fetch_VS_pull" sheetId="3" r:id="rId3"/>
+    <sheet name="rebase_VS_merge" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="197">
   <si>
     <t>按照上面操作本地Branch退回到对应版本后，在对本地节点进行Push，就可以让本地节点和Origin节点同步</t>
   </si>
@@ -573,6 +576,39 @@
   </si>
   <si>
     <t>最近一次提交</t>
+  </si>
+  <si>
+    <t>git fetch 和git pull的区别</t>
+  </si>
+  <si>
+    <t>git fetch从远程获取最新版本到本地，不自动进行Merge。</t>
+  </si>
+  <si>
+    <t>例子</t>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+  </si>
+  <si>
+    <t>git log -p master origin/master</t>
+  </si>
+  <si>
+    <t>git merge origin/master</t>
+  </si>
+  <si>
+    <t>git pull 从远程获取最新版本到本地，自已merge</t>
+  </si>
+  <si>
+    <t>相当于git fetch 然后git merge</t>
+  </si>
+  <si>
+    <t>优缺点：</t>
+  </si>
+  <si>
+    <t>git fetch相对来讲更安全点，可以在Merge之前，查看更新情况，然后决定是否合并。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase </t>
   </si>
 </sst>
 </file>
@@ -2175,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,4 +3318,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>